--- a/nmt/астатистика/nmt_3.xlsx
+++ b/nmt/астатистика/nmt_3.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="527">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -1764,7 +1765,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1826,6 +1827,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2013,11 +2018,11 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A263" activeCellId="0" sqref="A263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.88"/>
@@ -8399,275 +8404,2399 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L255"/>
+  <dimension ref="A1:J255"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="11.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="n">
+        <f aca="false">COUNTIF($A$1:$A$26, "OK")/26</f>
+        <v>0.115384615384615</v>
+      </c>
+      <c r="F1" s="17" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <f aca="false">COUNTIF($A$1:$A$26, "A")/26</f>
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="18" t="n">
+        <f aca="false">E1+E2</f>
+        <v>0.615384615384615</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <f aca="false">COUNTIF($A$1:$A$26, "B")/26</f>
+        <v>0.153846153846154</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <f aca="false">COUNTIF($A$1:$A$26, "C")/26</f>
+        <v>0.230769230769231</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <f aca="false">COUNTIF($A$1:$A$77, "OK")/77</f>
+        <v>0.116883116883117</v>
+      </c>
+      <c r="H5" s="17" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <f aca="false">COUNTIF($A$1:$A$77, "A")/77</f>
+        <v>0.285714285714286</v>
+      </c>
+      <c r="H6" s="18" t="n">
+        <f aca="false">G5+G6</f>
+        <v>0.402597402597403</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <f aca="false">COUNTIF($A$1:$A$77, "B")/77</f>
+        <v>0.116883116883117</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <f aca="false">COUNTIF($A$1:$A$77, "C")/77</f>
+        <v>0.480519480519481</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <f aca="false">COUNTIF($A$1:$A$128, "OK")/128</f>
+        <v>0.0859375</v>
+      </c>
+      <c r="J9" s="17" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <f aca="false">COUNTIF($A$1:$A$128, "A")/128</f>
+        <v>0.203125</v>
+      </c>
+      <c r="J10" s="18" t="n">
+        <f aca="false">I9+I10</f>
+        <v>0.2890625</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <f aca="false">COUNTIF($A$1:$A$128, "B")/128</f>
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="10" t="n">
+        <f aca="false">COUNTIF($A$1:$A$128, "C")/128</f>
+        <v>0.6015625</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.761</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.742</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.731</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.705</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.704</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.699</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.699</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.694</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.689</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.688</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.682</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.663</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.661</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.658</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.655</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.644</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.619</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.614</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.614</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.589</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.588</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.586</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0.579</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0.578</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0.559</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.558</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.546</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.529</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.522</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0.518</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0.511</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0.493</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0.486</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0.477</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0.469</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>0.467</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>0.467</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>0.465</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>0.465</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>0.428</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>0.423</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>0.422</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>0.405</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>0.395</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>0.394</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>0.389</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>0.386</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>0.382</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>0.359</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>0.345</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>0.329</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>0.303</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>0.289</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>0.273</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>0.269</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>0.258</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>0.244</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>0.225</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>0.209</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>0.209</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>0.171</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>0.164</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>0.149</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>0.143</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>0.117</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>0.096</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>0.094</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>0.094</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>0.093</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>0.092</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>0.086</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>0.084</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>0.079</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>0.076</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>0.072</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="0" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" s="0" t="n">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" s="0" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" s="0" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" s="0" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" s="0" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" s="0" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" s="0" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="0" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" s="0" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" s="0" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" s="0" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" s="0" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="0" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" s="0" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" s="0" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" s="0" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" s="0" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" s="0" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" s="0" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B196" s="0" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" s="0" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198" s="0" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199" s="0" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" s="0" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" s="0" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B207" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B220" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B228" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B236" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B238" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B242" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B244" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B246" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B247" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B250" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B253" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B254" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B255" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A255">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A255">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A255">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A255">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1:A255" type="list">
+      <formula1>"OK,A,B,C"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J255"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="D158" activeCellId="0" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>0.841</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <f aca="false">B1+C1</f>
-        <v>1.779</v>
-      </c>
-      <c r="F1" s="6" t="s">
+        <v>0.974</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="n">
+      <c r="E1" s="7" t="n">
         <f aca="false">COUNTIF($A$1:$A$26, "OK")/26</f>
-        <v>0.115384615384615</v>
-      </c>
-      <c r="H1" s="16" t="n">
+        <v>0.192307692307692</v>
+      </c>
+      <c r="F1" s="17" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.876</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <f aca="false">B2+C2</f>
-        <v>1.796</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="n">
         <f aca="false">COUNTIF($A$1:$A$26, "A")/26</f>
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="17" t="n">
-        <f aca="false">G1+G2</f>
-        <v>0.615384615384615</v>
+        <v>0.461538461538462</v>
+      </c>
+      <c r="F2" s="18" t="n">
+        <f aca="false">E1+E2</f>
+        <v>0.653846153846154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.919</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <f aca="false">B3+C3</f>
-        <v>1.392</v>
-      </c>
-      <c r="F3" s="6" t="s">
+        <v>0.93</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="E3" s="7" t="n">
         <f aca="false">COUNTIF($A$1:$A$26, "B")/26</f>
         <v>0.153846153846154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>6</v>
+      <c r="A4" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.876</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.921</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <f aca="false">B4+C4</f>
-        <v>1.797</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="10" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10" t="n">
         <f aca="false">COUNTIF($A$1:$A$26, "C")/26</f>
-        <v>0.230769230769231</v>
+        <v>0.192307692307692</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.867</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <f aca="false">B5+C5</f>
-        <v>0.871</v>
-      </c>
-      <c r="H5" s="6" t="s">
+        <v>0.921</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="G5" s="7" t="n">
         <f aca="false">COUNTIF($A$1:$A$77, "OK")/77</f>
-        <v>0.116883116883117</v>
-      </c>
-      <c r="J5" s="16" t="n">
+        <v>0.142857142857143</v>
+      </c>
+      <c r="H5" s="17" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <f aca="false">COUNTIF($A$1:$A$77, "A")/77</f>
+        <v>0.272727272727273</v>
+      </c>
+      <c r="H6" s="18" t="n">
+        <f aca="false">G5+G6</f>
+        <v>0.415584415584416</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.852</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <f aca="false">B6+C6</f>
-        <v>1.638</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <f aca="false">COUNTIF($A$1:$A$77, "A")/77</f>
-        <v>0.285714285714286</v>
-      </c>
-      <c r="J6" s="17" t="n">
-        <f aca="false">I5+I6</f>
-        <v>0.402597402597403</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <f aca="false">B7+C7</f>
-        <v>1.67</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7" t="n">
+      <c r="G7" s="7" t="n">
         <f aca="false">COUNTIF($A$1:$A$77, "B")/77</f>
-        <v>0.116883116883117</v>
+        <v>0.0779220779220779</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.845</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.223</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <f aca="false">B8+C8</f>
-        <v>1.068</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="10" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="10" t="n">
         <f aca="false">COUNTIF($A$1:$A$77, "C")/77</f>
-        <v>0.480519480519481</v>
+        <v>0.506493506493506</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <f aca="false">B9+C9</f>
-        <v>1.732</v>
-      </c>
-      <c r="J9" s="6" t="s">
+        <v>0.894</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="7" t="n">
+      <c r="I9" s="7" t="n">
         <f aca="false">COUNTIF($A$1:$A$128, "OK")/128</f>
-        <v>0.0859375</v>
-      </c>
-      <c r="L9" s="16" t="n">
+        <v>0.1171875</v>
+      </c>
+      <c r="J9" s="17" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.326</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <f aca="false">B10+C10</f>
-        <v>1.122</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="7" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7" t="n">
         <f aca="false">COUNTIF($A$1:$A$128, "A")/128</f>
-        <v>0.203125</v>
-      </c>
-      <c r="L10" s="17" t="n">
-        <f aca="false">K9+K10</f>
-        <v>0.2890625</v>
+        <v>0.21875</v>
+      </c>
+      <c r="J10" s="18" t="n">
+        <f aca="false">I9+I10</f>
+        <v>0.3359375</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>7</v>
+      <c r="A11" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.793</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.959</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <f aca="false">B11+C11</f>
-        <v>1.752</v>
-      </c>
-      <c r="J11" s="6" t="s">
+        <v>0.882</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="7" t="n">
+      <c r="I11" s="7" t="n">
         <f aca="false">COUNTIF($A$1:$A$128, "B")/128</f>
-        <v>0.109375</v>
+        <v>0.0859375</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8675,81 +10804,46 @@
         <v>6</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.775</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <f aca="false">B12+C12</f>
-        <v>1.76</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="10" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="10" t="n">
         <f aca="false">COUNTIF($A$1:$A$128, "C")/128</f>
-        <v>0.6015625</v>
+        <v>0.578125</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.761</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.432</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <f aca="false">B13+C13</f>
-        <v>1.193</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.742</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0.295</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <f aca="false">B14+C14</f>
-        <v>1.037</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <f aca="false">B15+C15</f>
-        <v>1.3</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.731</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0.503</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">B16+C16</f>
-        <v>1.234</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8757,14 +10851,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.705</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">B17+C17</f>
-        <v>0.899</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8772,59 +10859,31 @@
         <v>7</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.704</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0.989</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false">B18+C18</f>
-        <v>1.693</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.699</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false">B19+C19</f>
-        <v>1.192</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.699</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <f aca="false">B20+C20</f>
-        <v>1.143</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.694</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <f aca="false">B21+C21</f>
-        <v>1.309</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8832,14 +10891,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <f aca="false">B22+C22</f>
-        <v>1.669</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8847,14 +10899,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.689</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <f aca="false">B23+C23</f>
-        <v>1.68</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8862,44 +10907,23 @@
         <v>7</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.688</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>0.251</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <f aca="false">B24+C24</f>
-        <v>0.939</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.682</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>0.635</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <f aca="false">B25+C25</f>
-        <v>1.317</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.663</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <f aca="false">B26+C26</f>
-        <v>1.175</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8907,14 +10931,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.661</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>0.992</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <f aca="false">B27+C27</f>
-        <v>1.653</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8922,14 +10939,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.658</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>0.573</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <f aca="false">B28+C28</f>
-        <v>1.231</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8937,14 +10947,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0.322</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <f aca="false">B29+C29</f>
-        <v>0.977</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8952,74 +10955,39 @@
         <v>9</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.644</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0.427</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <f aca="false">B30+C30</f>
-        <v>1.071</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.629</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <f aca="false">B31+C31</f>
-        <v>1.116</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.619</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0.303</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <f aca="false">B32+C32</f>
-        <v>0.922</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
-        <v>9</v>
+      <c r="A33" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <f aca="false">B33+C33</f>
-        <v>1.605</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <f aca="false">B34+C34</f>
-        <v>0.967</v>
+        <v>0.568</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9027,29 +10995,15 @@
         <v>9</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0.403</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <f aca="false">B35+C35</f>
-        <v>1.013</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>6</v>
+      <c r="A36" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.589</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <f aca="false">B36+C36</f>
-        <v>0.704</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9057,14 +11011,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0.314</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <f aca="false">B37+C37</f>
-        <v>0.902</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9072,134 +11019,71 @@
         <v>9</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.586</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <f aca="false">B38+C38</f>
-        <v>1.363</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>0.332</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <f aca="false">B39+C39</f>
-        <v>0.911</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>0.352</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <f aca="false">B40+C40</f>
-        <v>0.93</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.559</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <f aca="false">B41+C41</f>
-        <v>1.115</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.558</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>0.584</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <f aca="false">B42+C42</f>
-        <v>1.142</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <f aca="false">B43+C43</f>
-        <v>0.907</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.546</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <f aca="false">B44+C44</f>
-        <v>1.044</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.529</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <f aca="false">B45+C45</f>
-        <v>0.775</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>0.642</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <f aca="false">B46+C46</f>
-        <v>1.167</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9207,89 +11091,47 @@
         <v>9</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>0.288</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <f aca="false">B47+C47</f>
-        <v>0.813</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0.522</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>0.261</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <f aca="false">B48+C48</f>
-        <v>0.783</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <f aca="false">B49+C49</f>
-        <v>0.773</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.511</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <f aca="false">B50+C50</f>
-        <v>0.615</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <f aca="false">B51+C51</f>
-        <v>1.016</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <f aca="false">B52+C52</f>
-        <v>0.933</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9297,119 +11139,63 @@
         <v>9</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>0.359</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <f aca="false">B53+C53</f>
-        <v>0.849</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="s">
-        <v>7</v>
+      <c r="A54" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>0.314</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <f aca="false">B54+C54</f>
-        <v>0.8</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0.477</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>0.277</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <f aca="false">B55+C55</f>
-        <v>0.754</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>0.851</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <f aca="false">B56+C56</f>
-        <v>1.32</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13" t="s">
-        <v>9</v>
+      <c r="A57" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <f aca="false">B57+C57</f>
-        <v>0.783</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <f aca="false">B58+C58</f>
-        <v>0.672</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.465</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>0.988</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <f aca="false">B59+C59</f>
-        <v>1.453</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.465</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <f aca="false">B60+C60</f>
-        <v>0.635</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9417,14 +11203,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.441</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="D61" s="0" t="n">
-        <f aca="false">B61+C61</f>
-        <v>0.805</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9432,29 +11211,15 @@
         <v>9</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="D62" s="0" t="n">
-        <f aca="false">B62+C62</f>
-        <v>0.612</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="s">
-        <v>6</v>
+      <c r="A63" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>0.925</v>
-      </c>
-      <c r="D63" s="0" t="n">
-        <f aca="false">B63+C63</f>
-        <v>1.355</v>
+        <v>0.087</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9462,74 +11227,39 @@
         <v>9</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.428</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>0.711</v>
-      </c>
-      <c r="D64" s="0" t="n">
-        <f aca="false">B64+C64</f>
-        <v>1.139</v>
+        <v>0.087</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>0.552</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <f aca="false">B65+C65</f>
-        <v>0.977</v>
+        <v>0.084</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="C66" s="0" t="n">
-        <v>0.962</v>
-      </c>
-      <c r="D66" s="0" t="n">
-        <f aca="false">B66+C66</f>
-        <v>1.385</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0.422</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <f aca="false">B67+C67</f>
-        <v>0.722</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13" t="s">
-        <v>9</v>
+      <c r="A68" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>0.116</v>
-      </c>
-      <c r="D68" s="0" t="n">
-        <f aca="false">B68+C68</f>
-        <v>0.521</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9537,14 +11267,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0.395</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <f aca="false">B69+C69</f>
-        <v>0.809</v>
+        <v>0.069</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9552,29 +11275,15 @@
         <v>8</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="D70" s="0" t="n">
-        <f aca="false">B70+C70</f>
-        <v>0.42</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13" t="s">
-        <v>9</v>
+      <c r="A71" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <f aca="false">B71+C71</f>
-        <v>0.932</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9582,14 +11291,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0.386</v>
-      </c>
-      <c r="C72" s="0" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="D72" s="0" t="n">
-        <f aca="false">B72+C72</f>
-        <v>0.558</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9597,14 +11299,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <f aca="false">B73+C73</f>
-        <v>0.467</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9612,44 +11307,23 @@
         <v>9</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0.359</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <f aca="false">B74+C74</f>
-        <v>0.851</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>0.546</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <f aca="false">B75+C75</f>
-        <v>0.891</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>0.293</v>
-      </c>
-      <c r="D76" s="0" t="n">
-        <f aca="false">B76+C76</f>
-        <v>0.637</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9657,14 +11331,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="D77" s="0" t="n">
-        <f aca="false">B77+C77</f>
-        <v>1.209</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9672,14 +11339,7 @@
         <v>9</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0.317</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="D78" s="0" t="n">
-        <f aca="false">B78+C78</f>
-        <v>0.514</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9687,44 +11347,23 @@
         <v>9</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0.303</v>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>0.309</v>
-      </c>
-      <c r="D79" s="0" t="n">
-        <f aca="false">B79+C79</f>
-        <v>0.612</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0.289</v>
-      </c>
-      <c r="C80" s="0" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="D80" s="0" t="n">
-        <f aca="false">B80+C80</f>
-        <v>0.644</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0.279</v>
-      </c>
-      <c r="C81" s="0" t="n">
-        <v>0.557</v>
-      </c>
-      <c r="D81" s="0" t="n">
-        <f aca="false">B81+C81</f>
-        <v>0.836</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9732,29 +11371,15 @@
         <v>9</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>0.541</v>
-      </c>
-      <c r="D82" s="0" t="n">
-        <f aca="false">B82+C82</f>
-        <v>0.814</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>0.314</v>
-      </c>
-      <c r="D83" s="0" t="n">
-        <f aca="false">B83+C83</f>
-        <v>0.584</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9762,14 +11387,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="D84" s="0" t="n">
-        <f aca="false">B84+C84</f>
-        <v>0.424</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9777,74 +11395,39 @@
         <v>9</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0.269</v>
-      </c>
-      <c r="C85" s="0" t="n">
-        <v>0.313</v>
-      </c>
-      <c r="D85" s="0" t="n">
-        <f aca="false">B85+C85</f>
-        <v>0.582</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0.258</v>
-      </c>
-      <c r="C86" s="0" t="n">
-        <v>0.664</v>
-      </c>
-      <c r="D86" s="0" t="n">
-        <f aca="false">B86+C86</f>
-        <v>0.922</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="C87" s="0" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="D87" s="0" t="n">
-        <f aca="false">B87+C87</f>
-        <v>0.741</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="C88" s="0" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="D88" s="0" t="n">
-        <f aca="false">B88+C88</f>
-        <v>0.867</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0.244</v>
-      </c>
-      <c r="C89" s="0" t="n">
-        <v>0.387</v>
-      </c>
-      <c r="D89" s="0" t="n">
-        <f aca="false">B89+C89</f>
-        <v>0.631</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9852,29 +11435,15 @@
         <v>9</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>0.748</v>
-      </c>
-      <c r="D90" s="0" t="n">
-        <f aca="false">B90+C90</f>
-        <v>0.983</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="13" t="s">
-        <v>7</v>
+      <c r="A91" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="C91" s="0" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="D91" s="0" t="n">
-        <f aca="false">B91+C91</f>
-        <v>0.452</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9882,29 +11451,15 @@
         <v>9</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="C92" s="0" t="n">
-        <v>0.989</v>
-      </c>
-      <c r="D92" s="0" t="n">
-        <f aca="false">B92+C92</f>
-        <v>1.198</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="13" t="s">
-        <v>9</v>
+      <c r="A93" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="C93" s="0" t="n">
-        <v>0.249</v>
-      </c>
-      <c r="D93" s="0" t="n">
-        <f aca="false">B93+C93</f>
-        <v>0.458</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9912,14 +11467,7 @@
         <v>9</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="C94" s="0" t="n">
-        <v>0.283</v>
-      </c>
-      <c r="D94" s="0" t="n">
-        <f aca="false">B94+C94</f>
-        <v>0.476</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9927,29 +11475,15 @@
         <v>9</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>0.188</v>
-      </c>
-      <c r="C95" s="0" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="D95" s="0" t="n">
-        <f aca="false">B95+C95</f>
-        <v>0.445</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="C96" s="0" t="n">
-        <v>0.503</v>
-      </c>
-      <c r="D96" s="0" t="n">
-        <f aca="false">B96+C96</f>
-        <v>0.688</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9957,29 +11491,15 @@
         <v>9</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="C97" s="0" t="n">
-        <v>0.784</v>
-      </c>
-      <c r="D97" s="0" t="n">
-        <f aca="false">B97+C97</f>
-        <v>0.966</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="13" t="s">
-        <v>8</v>
+      <c r="A98" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="C98" s="0" t="n">
-        <v>0.989</v>
-      </c>
-      <c r="D98" s="0" t="n">
-        <f aca="false">B98+C98</f>
-        <v>1.16</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9987,44 +11507,23 @@
         <v>9</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="C99" s="0" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="D99" s="0" t="n">
-        <f aca="false">B99+C99</f>
-        <v>0.49</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="C100" s="0" t="n">
-        <v>0.987</v>
-      </c>
-      <c r="D100" s="0" t="n">
-        <f aca="false">B100+C100</f>
-        <v>1.151</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="C101" s="0" t="n">
-        <v>0.816</v>
-      </c>
-      <c r="D101" s="0" t="n">
-        <f aca="false">B101+C101</f>
-        <v>0.976</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10032,29 +11531,15 @@
         <v>6</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>0.159</v>
-      </c>
-      <c r="C102" s="0" t="n">
-        <v>0.717</v>
-      </c>
-      <c r="D102" s="0" t="n">
-        <f aca="false">B102+C102</f>
-        <v>0.876</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>0.156</v>
-      </c>
-      <c r="C103" s="0" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="D103" s="0" t="n">
-        <f aca="false">B103+C103</f>
-        <v>1.068</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10062,14 +11547,7 @@
         <v>9</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="C104" s="0" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="D104" s="0" t="n">
-        <f aca="false">B104+C104</f>
-        <v>0.566</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10077,29 +11555,15 @@
         <v>9</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="C105" s="0" t="n">
-        <v>0.454</v>
-      </c>
-      <c r="D105" s="0" t="n">
-        <f aca="false">B105+C105</f>
-        <v>0.603</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="C106" s="0" t="n">
-        <v>0.987</v>
-      </c>
-      <c r="D106" s="0" t="n">
-        <f aca="false">B106+C106</f>
-        <v>1.134</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10107,14 +11571,7 @@
         <v>9</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="C107" s="0" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="D107" s="0" t="n">
-        <f aca="false">B107+C107</f>
-        <v>0.917</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10122,14 +11579,7 @@
         <v>9</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="C108" s="0" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="D108" s="0" t="n">
-        <f aca="false">B108+C108</f>
-        <v>0.631</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10137,14 +11587,7 @@
         <v>9</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="C109" s="0" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="D109" s="0" t="n">
-        <f aca="false">B109+C109</f>
-        <v>0.17</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10152,29 +11595,15 @@
         <v>9</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="C110" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="D110" s="0" t="n">
-        <f aca="false">B110+C110</f>
-        <v>0.703</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="13" t="s">
-        <v>6</v>
+      <c r="A111" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C111" s="0" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D111" s="0" t="n">
-        <f aca="false">B111+C111</f>
-        <v>0.23</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10182,59 +11611,31 @@
         <v>9</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="C112" s="0" t="n">
-        <v>0.747</v>
-      </c>
-      <c r="D112" s="0" t="n">
-        <f aca="false">B112+C112</f>
-        <v>0.878</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="0" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="C113" s="0" t="n">
-        <v>0.621</v>
-      </c>
-      <c r="D113" s="0" t="n">
-        <f aca="false">B113+C113</f>
-        <v>0.746</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="B114" s="0" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="C114" s="0" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="D114" s="0" t="n">
-        <f aca="false">B114+C114</f>
-        <v>0.269</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>0.117</v>
-      </c>
-      <c r="C115" s="0" t="n">
-        <v>0.436</v>
-      </c>
-      <c r="D115" s="0" t="n">
-        <f aca="false">B115+C115</f>
-        <v>0.553</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10242,59 +11643,31 @@
         <v>8</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="C116" s="0" t="n">
-        <v>0.764</v>
-      </c>
-      <c r="D116" s="0" t="n">
-        <f aca="false">B116+C116</f>
-        <v>0.879</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="C117" s="0" t="n">
-        <v>0.992</v>
-      </c>
-      <c r="D117" s="0" t="n">
-        <f aca="false">B117+C117</f>
-        <v>1.1</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="13" t="s">
-        <v>9</v>
+      <c r="A118" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="C118" s="0" t="n">
-        <v>0.341</v>
-      </c>
-      <c r="D118" s="0" t="n">
-        <f aca="false">B118+C118</f>
-        <v>0.449</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="C119" s="0" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D119" s="0" t="n">
-        <f aca="false">B119+C119</f>
-        <v>0.195</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10302,44 +11675,23 @@
         <v>8</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="C120" s="0" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="D120" s="0" t="n">
-        <f aca="false">B120+C120</f>
-        <v>0.515</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="C121" s="0" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="D121" s="0" t="n">
-        <f aca="false">B121+C121</f>
-        <v>0.607</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="C122" s="0" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="D122" s="0" t="n">
-        <f aca="false">B122+C122</f>
-        <v>0.532</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10347,14 +11699,7 @@
         <v>9</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="C123" s="0" t="n">
-        <v>0.206</v>
-      </c>
-      <c r="D123" s="0" t="n">
-        <f aca="false">B123+C123</f>
-        <v>0.3</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10362,44 +11707,23 @@
         <v>9</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="C124" s="0" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D124" s="0" t="n">
-        <f aca="false">B124+C124</f>
-        <v>0.183</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="13" t="s">
-        <v>7</v>
+      <c r="A125" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="C125" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D125" s="0" t="n">
-        <f aca="false">B125+C125</f>
-        <v>0.892</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>0.086</v>
-      </c>
-      <c r="C126" s="0" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="D126" s="0" t="n">
-        <f aca="false">B126+C126</f>
-        <v>0.402</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10407,44 +11731,23 @@
         <v>9</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>0.084</v>
-      </c>
-      <c r="C127" s="0" t="n">
-        <v>0.668</v>
-      </c>
-      <c r="D127" s="0" t="n">
-        <f aca="false">B127+C127</f>
-        <v>0.752</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="13" t="s">
+      <c r="A128" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="C128" s="0" t="n">
-        <v>0.465</v>
-      </c>
-      <c r="D128" s="0" t="n">
-        <f aca="false">B128+C128</f>
-        <v>0.545</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="C129" s="0" t="n">
-        <v>0.974</v>
-      </c>
-      <c r="D129" s="0" t="n">
-        <f aca="false">B129+C129</f>
-        <v>1.053</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10452,14 +11755,7 @@
         <v>9</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="C130" s="0" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="D130" s="0" t="n">
-        <f aca="false">B130+C130</f>
-        <v>0.574</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10467,44 +11763,23 @@
         <v>9</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>0.072</v>
-      </c>
-      <c r="C131" s="0" t="n">
-        <v>0.401</v>
-      </c>
-      <c r="D131" s="0" t="n">
-        <f aca="false">B131+C131</f>
-        <v>0.473</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="C132" s="0" t="n">
-        <v>0.568</v>
-      </c>
-      <c r="D132" s="0" t="n">
-        <f aca="false">B132+C132</f>
-        <v>0.638</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="C133" s="0" t="n">
-        <v>0.885</v>
-      </c>
-      <c r="D133" s="0" t="n">
-        <f aca="false">B133+C133</f>
-        <v>0.953</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10512,59 +11787,31 @@
         <v>7</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="C134" s="0" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="D134" s="0" t="n">
-        <f aca="false">B134+C134</f>
-        <v>1.033</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="13" t="s">
-        <v>7</v>
+      <c r="A135" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="C135" s="0" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="D135" s="0" t="n">
-        <f aca="false">B135+C135</f>
-        <v>0.959</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="C136" s="0" t="n">
-        <v>0.645</v>
-      </c>
-      <c r="D136" s="0" t="n">
-        <f aca="false">B136+C136</f>
-        <v>0.691</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="C137" s="0" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="D137" s="0" t="n">
-        <f aca="false">B137+C137</f>
-        <v>0.112</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10572,14 +11819,7 @@
         <v>7</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="C138" s="0" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="D138" s="0" t="n">
-        <f aca="false">B138+C138</f>
-        <v>0.354</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10587,44 +11827,23 @@
         <v>9</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="C139" s="0" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="D139" s="0" t="n">
-        <f aca="false">B139+C139</f>
-        <v>1.021</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="C140" s="0" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="D140" s="0" t="n">
-        <f aca="false">B140+C140</f>
-        <v>0.116</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C141" s="0" t="n">
-        <v>0.859</v>
-      </c>
-      <c r="D141" s="0" t="n">
-        <f aca="false">B141+C141</f>
-        <v>0.899</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10632,29 +11851,15 @@
         <v>9</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="C142" s="0" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="D142" s="0" t="n">
-        <f aca="false">B142+C142</f>
-        <v>0.193</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="C143" s="0" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="D143" s="0" t="n">
-        <f aca="false">B143+C143</f>
-        <v>0.4</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10662,89 +11867,47 @@
         <v>9</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="C144" s="0" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="D144" s="0" t="n">
-        <f aca="false">B144+C144</f>
-        <v>0.191</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="C145" s="0" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="D145" s="0" t="n">
-        <f aca="false">B145+C145</f>
-        <v>0.04</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="C146" s="0" t="n">
-        <v>0.447</v>
-      </c>
-      <c r="D146" s="0" t="n">
-        <f aca="false">B146+C146</f>
-        <v>0.478</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="C147" s="0" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="D147" s="0" t="n">
-        <f aca="false">B147+C147</f>
-        <v>0.45</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="C148" s="0" t="n">
-        <v>0.431</v>
-      </c>
-      <c r="D148" s="0" t="n">
-        <f aca="false">B148+C148</f>
-        <v>0.458</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="C149" s="0" t="n">
-        <v>0.854</v>
-      </c>
-      <c r="D149" s="0" t="n">
-        <f aca="false">B149+C149</f>
-        <v>0.88</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10752,104 +11915,55 @@
         <v>9</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="C150" s="0" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="D150" s="0" t="n">
-        <f aca="false">B150+C150</f>
-        <v>0.136</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="C151" s="0" t="n">
-        <v>0.337</v>
-      </c>
-      <c r="D151" s="0" t="n">
-        <f aca="false">B151+C151</f>
-        <v>0.359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="C152" s="0" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="D152" s="0" t="n">
-        <f aca="false">B152+C152</f>
-        <v>0.342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="C153" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D153" s="0" t="n">
-        <f aca="false">B153+C153</f>
-        <v>0.021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="C154" s="0" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="D154" s="0" t="n">
-        <f aca="false">B154+C154</f>
-        <v>0.382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="C155" s="0" t="n">
-        <v>0.359</v>
-      </c>
-      <c r="D155" s="0" t="n">
-        <f aca="false">B155+C155</f>
-        <v>0.374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="C156" s="0" t="n">
-        <v>0.138</v>
-      </c>
-      <c r="D156" s="0" t="n">
-        <f aca="false">B156+C156</f>
-        <v>0.153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10857,14 +11971,7 @@
         <v>9</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="C157" s="0" t="n">
-        <v>0.553</v>
-      </c>
-      <c r="D157" s="0" t="n">
-        <f aca="false">B157+C157</f>
-        <v>0.567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10872,14 +11979,7 @@
         <v>9</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="C158" s="0" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="D158" s="0" t="n">
-        <f aca="false">B158+C158</f>
-        <v>0.347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10887,14 +11987,7 @@
         <v>9</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="C159" s="0" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="D159" s="0" t="n">
-        <f aca="false">B159+C159</f>
-        <v>0.049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10902,14 +11995,7 @@
         <v>9</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C160" s="0" t="n">
-        <v>0.263</v>
-      </c>
-      <c r="D160" s="0" t="n">
-        <f aca="false">B160+C160</f>
-        <v>0.276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10917,29 +12003,15 @@
         <v>9</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C161" s="0" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="D161" s="0" t="n">
-        <f aca="false">B161+C161</f>
-        <v>0.037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C162" s="0" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="D162" s="0" t="n">
-        <f aca="false">B162+C162</f>
-        <v>0.507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10947,59 +12019,31 @@
         <v>9</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="C163" s="0" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D163" s="0" t="n">
-        <f aca="false">B163+C163</f>
-        <v>0.871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="C164" s="0" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="D164" s="0" t="n">
-        <f aca="false">B164+C164</f>
-        <v>0.401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C165" s="0" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="D165" s="0" t="n">
-        <f aca="false">B165+C165</f>
-        <v>0.218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="C166" s="0" t="n">
-        <v>0.436</v>
-      </c>
-      <c r="D166" s="0" t="n">
-        <f aca="false">B166+C166</f>
-        <v>0.445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11007,14 +12051,7 @@
         <v>9</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="C167" s="0" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="D167" s="0" t="n">
-        <f aca="false">B167+C167</f>
-        <v>0.226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11022,74 +12059,39 @@
         <v>9</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="C168" s="0" t="n">
-        <v>0.326</v>
-      </c>
-      <c r="D168" s="0" t="n">
-        <f aca="false">B168+C168</f>
-        <v>0.334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="C169" s="0" t="n">
-        <v>0.258</v>
-      </c>
-      <c r="D169" s="0" t="n">
-        <f aca="false">B169+C169</f>
-        <v>0.265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="C170" s="0" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="D170" s="0" t="n">
-        <f aca="false">B170+C170</f>
-        <v>0.372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="13" t="s">
-        <v>7</v>
+      <c r="A171" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="C171" s="0" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="D171" s="0" t="n">
-        <f aca="false">B171+C171</f>
-        <v>0.056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="C172" s="0" t="n">
-        <v>0.903</v>
-      </c>
-      <c r="D172" s="0" t="n">
-        <f aca="false">B172+C172</f>
-        <v>0.907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11097,14 +12099,7 @@
         <v>7</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="C173" s="0" t="n">
-        <v>0.866</v>
-      </c>
-      <c r="D173" s="0" t="n">
-        <f aca="false">B173+C173</f>
-        <v>0.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11112,74 +12107,39 @@
         <v>9</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="C174" s="0" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="D174" s="0" t="n">
-        <f aca="false">B174+C174</f>
-        <v>0.156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="C175" s="0" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="D175" s="0" t="n">
-        <f aca="false">B175+C175</f>
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="C176" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D176" s="0" t="n">
-        <f aca="false">B176+C176</f>
-        <v>0.993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="C177" s="0" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="D177" s="0" t="n">
-        <f aca="false">B177+C177</f>
-        <v>0.526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="13" t="s">
+      <c r="A178" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="C178" s="0" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="D178" s="0" t="n">
-        <f aca="false">B178+C178</f>
-        <v>0.482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11187,29 +12147,15 @@
         <v>9</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="C179" s="0" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="D179" s="0" t="n">
-        <f aca="false">B179+C179</f>
-        <v>0.146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="13" t="s">
+      <c r="A180" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="C180" s="0" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="D180" s="0" t="n">
-        <f aca="false">B180+C180</f>
-        <v>0.057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11217,59 +12163,31 @@
         <v>9</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C181" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D181" s="0" t="n">
-        <f aca="false">B181+C181</f>
-        <v>0.902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C182" s="0" t="n">
-        <v>0.772</v>
-      </c>
-      <c r="D182" s="0" t="n">
-        <f aca="false">B182+C182</f>
-        <v>0.774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C183" s="0" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="D183" s="0" t="n">
-        <f aca="false">B183+C183</f>
-        <v>0.478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C184" s="0" t="n">
-        <v>0.451</v>
-      </c>
-      <c r="D184" s="0" t="n">
-        <f aca="false">B184+C184</f>
-        <v>0.453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11277,14 +12195,7 @@
         <v>9</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C185" s="0" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="D185" s="0" t="n">
-        <f aca="false">B185+C185</f>
-        <v>0.345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11292,14 +12203,7 @@
         <v>9</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C186" s="0" t="n">
-        <v>0.295</v>
-      </c>
-      <c r="D186" s="0" t="n">
-        <f aca="false">B186+C186</f>
-        <v>0.297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11307,29 +12211,15 @@
         <v>9</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C187" s="0" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="D187" s="0" t="n">
-        <f aca="false">B187+C187</f>
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C188" s="0" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="D188" s="0" t="n">
-        <f aca="false">B188+C188</f>
-        <v>0.992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11337,14 +12227,7 @@
         <v>9</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C189" s="0" t="n">
-        <v>0.868</v>
-      </c>
-      <c r="D189" s="0" t="n">
-        <f aca="false">B189+C189</f>
-        <v>0.869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11352,14 +12235,7 @@
         <v>9</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C190" s="0" t="n">
-        <v>0.841</v>
-      </c>
-      <c r="D190" s="0" t="n">
-        <f aca="false">B190+C190</f>
-        <v>0.842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11367,134 +12243,71 @@
         <v>6</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C191" s="0" t="n">
-        <v>0.792</v>
-      </c>
-      <c r="D191" s="0" t="n">
-        <f aca="false">B191+C191</f>
-        <v>0.793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C192" s="0" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="D192" s="0" t="n">
-        <f aca="false">B192+C192</f>
-        <v>0.519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C193" s="0" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="D193" s="0" t="n">
-        <f aca="false">B193+C193</f>
-        <v>0.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C194" s="0" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="D194" s="0" t="n">
-        <f aca="false">B194+C194</f>
-        <v>0.491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="13" t="s">
-        <v>7</v>
+      <c r="A195" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C195" s="0" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="D195" s="0" t="n">
-        <f aca="false">B195+C195</f>
-        <v>0.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C196" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D196" s="0" t="n">
-        <f aca="false">B196+C196</f>
-        <v>0.401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="13" t="s">
-        <v>9</v>
+      <c r="A197" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C197" s="0" t="n">
-        <v>0.387</v>
-      </c>
-      <c r="D197" s="0" t="n">
-        <f aca="false">B197+C197</f>
-        <v>0.388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C198" s="0" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="D198" s="0" t="n">
-        <f aca="false">B198+C198</f>
-        <v>0.344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="13" t="s">
-        <v>9</v>
+      <c r="A199" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C199" s="0" t="n">
-        <v>0.221</v>
-      </c>
-      <c r="D199" s="0" t="n">
-        <f aca="false">B199+C199</f>
-        <v>0.222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11502,74 +12315,39 @@
         <v>9</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C200" s="0" t="n">
-        <v>0.202</v>
-      </c>
-      <c r="D200" s="0" t="n">
-        <f aca="false">B200+C200</f>
-        <v>0.203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C201" s="0" t="n">
-        <v>0.199</v>
-      </c>
-      <c r="D201" s="0" t="n">
-        <f aca="false">B201+C201</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="13" t="s">
+      <c r="A202" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C202" s="0" t="n">
-        <v>0.992</v>
-      </c>
-      <c r="D202" s="0" t="n">
-        <f aca="false">B202+C202</f>
-        <v>0.992</v>
-      </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="13" t="s">
+      <c r="A203" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="C203" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D203" s="0" t="n">
-        <f aca="false">B203+C203</f>
-        <v>0.99</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="C204" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="D204" s="0" t="n">
-        <f aca="false">B204+C204</f>
-        <v>0.889</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11579,13 +12357,6 @@
       <c r="B205" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C205" s="0" t="n">
-        <v>0.887</v>
-      </c>
-      <c r="D205" s="0" t="n">
-        <f aca="false">B205+C205</f>
-        <v>0.887</v>
-      </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="15" t="s">
@@ -11594,27 +12365,13 @@
       <c r="B206" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C206" s="0" t="n">
-        <v>0.808</v>
-      </c>
-      <c r="D206" s="0" t="n">
-        <f aca="false">B206+C206</f>
-        <v>0.808</v>
-      </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="13" t="s">
+      <c r="A207" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="C207" s="0" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="D207" s="0" t="n">
-        <f aca="false">B207+C207</f>
-        <v>0.743</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11624,13 +12381,6 @@
       <c r="B208" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C208" s="0" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="D208" s="0" t="n">
-        <f aca="false">B208+C208</f>
-        <v>0.686</v>
-      </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="15" t="s">
@@ -11639,13 +12389,6 @@
       <c r="B209" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C209" s="0" t="n">
-        <v>0.576</v>
-      </c>
-      <c r="D209" s="0" t="n">
-        <f aca="false">B209+C209</f>
-        <v>0.576</v>
-      </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="15" t="s">
@@ -11654,42 +12397,21 @@
       <c r="B210" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C210" s="0" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="D210" s="0" t="n">
-        <f aca="false">B210+C210</f>
-        <v>0.518</v>
-      </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C211" s="0" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="D211" s="0" t="n">
-        <f aca="false">B211+C211</f>
-        <v>0.512</v>
-      </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="13" t="s">
+      <c r="A212" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="C212" s="0" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="D212" s="0" t="n">
-        <f aca="false">B212+C212</f>
-        <v>0.378</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11699,13 +12421,6 @@
       <c r="B213" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C213" s="0" t="n">
-        <v>0.377</v>
-      </c>
-      <c r="D213" s="0" t="n">
-        <f aca="false">B213+C213</f>
-        <v>0.377</v>
-      </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="15" t="s">
@@ -11714,27 +12429,13 @@
       <c r="B214" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C214" s="0" t="n">
-        <v>0.352</v>
-      </c>
-      <c r="D214" s="0" t="n">
-        <f aca="false">B214+C214</f>
-        <v>0.352</v>
-      </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="C215" s="0" t="n">
-        <v>0.337</v>
-      </c>
-      <c r="D215" s="0" t="n">
-        <f aca="false">B215+C215</f>
-        <v>0.337</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11744,42 +12445,21 @@
       <c r="B216" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C216" s="0" t="n">
-        <v>0.326</v>
-      </c>
-      <c r="D216" s="0" t="n">
-        <f aca="false">B216+C216</f>
-        <v>0.326</v>
-      </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="C217" s="0" t="n">
-        <v>0.324</v>
-      </c>
-      <c r="D217" s="0" t="n">
-        <f aca="false">B217+C217</f>
-        <v>0.324</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="C218" s="0" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="D218" s="0" t="n">
-        <f aca="false">B218+C218</f>
-        <v>0.296</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11789,72 +12469,37 @@
       <c r="B219" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C219" s="0" t="n">
-        <v>0.285</v>
-      </c>
-      <c r="D219" s="0" t="n">
-        <f aca="false">B219+C219</f>
-        <v>0.285</v>
-      </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="C220" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="D220" s="0" t="n">
-        <f aca="false">B220+C220</f>
-        <v>0.28</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="C221" s="0" t="n">
-        <v>0.258</v>
-      </c>
-      <c r="D221" s="0" t="n">
-        <f aca="false">B221+C221</f>
-        <v>0.258</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C222" s="0" t="n">
-        <v>0.249</v>
-      </c>
-      <c r="D222" s="0" t="n">
-        <f aca="false">B222+C222</f>
-        <v>0.249</v>
-      </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="13" t="s">
-        <v>9</v>
+      <c r="A223" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="C223" s="0" t="n">
-        <v>0.234</v>
-      </c>
-      <c r="D223" s="0" t="n">
-        <f aca="false">B223+C223</f>
-        <v>0.234</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11864,13 +12509,6 @@
       <c r="B224" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C224" s="0" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="D224" s="0" t="n">
-        <f aca="false">B224+C224</f>
-        <v>0.23</v>
-      </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="15" t="s">
@@ -11879,42 +12517,21 @@
       <c r="B225" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C225" s="0" t="n">
-        <v>0.218</v>
-      </c>
-      <c r="D225" s="0" t="n">
-        <f aca="false">B225+C225</f>
-        <v>0.218</v>
-      </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="13" t="s">
-        <v>9</v>
+      <c r="A226" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C226" s="0" t="n">
-        <v>0.202</v>
-      </c>
-      <c r="D226" s="0" t="n">
-        <f aca="false">B226+C226</f>
-        <v>0.202</v>
-      </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="13" t="s">
+      <c r="A227" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="C227" s="0" t="n">
-        <v>0.184</v>
-      </c>
-      <c r="D227" s="0" t="n">
-        <f aca="false">B227+C227</f>
-        <v>0.184</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11924,87 +12541,45 @@
       <c r="B228" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C228" s="0" t="n">
-        <v>0.183</v>
-      </c>
-      <c r="D228" s="0" t="n">
-        <f aca="false">B228+C228</f>
-        <v>0.183</v>
-      </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="C229" s="0" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="D229" s="0" t="n">
-        <f aca="false">B229+C229</f>
-        <v>0.182</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="C230" s="0" t="n">
-        <v>0.181</v>
-      </c>
-      <c r="D230" s="0" t="n">
-        <f aca="false">B230+C230</f>
-        <v>0.181</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="C231" s="0" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="D231" s="0" t="n">
-        <f aca="false">B231+C231</f>
-        <v>0.16</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="C232" s="0" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="D232" s="0" t="n">
-        <f aca="false">B232+C232</f>
-        <v>0.127</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="C233" s="0" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="D233" s="0" t="n">
-        <f aca="false">B233+C233</f>
-        <v>0.048</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12014,27 +12589,13 @@
       <c r="B234" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C234" s="0" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="D234" s="0" t="n">
-        <f aca="false">B234+C234</f>
-        <v>0.014</v>
-      </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="C235" s="0" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="D235" s="0" t="n">
-        <f aca="false">B235+C235</f>
-        <v>0.002</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12044,13 +12605,6 @@
       <c r="B236" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C236" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D236" s="0" t="n">
-        <f aca="false">B236+C236</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="15" t="s">
@@ -12059,41 +12613,20 @@
       <c r="B237" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C237" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D237" s="0" t="n">
-        <f aca="false">B237+C237</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C238" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D238" s="0" t="n">
-        <f aca="false">B238+C238</f>
         <v>0</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C239" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D239" s="0" t="n">
-        <f aca="false">B239+C239</f>
         <v>0</v>
       </c>
     </row>
@@ -12104,13 +12637,6 @@
       <c r="B240" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C240" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D240" s="0" t="n">
-        <f aca="false">B240+C240</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="15" t="s">
@@ -12119,13 +12645,6 @@
       <c r="B241" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C241" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D241" s="0" t="n">
-        <f aca="false">B241+C241</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="15" t="s">
@@ -12134,13 +12653,6 @@
       <c r="B242" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C242" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D242" s="0" t="n">
-        <f aca="false">B242+C242</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="15" t="s">
@@ -12149,13 +12661,6 @@
       <c r="B243" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C243" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D243" s="0" t="n">
-        <f aca="false">B243+C243</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="15" t="s">
@@ -12164,13 +12669,6 @@
       <c r="B244" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C244" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D244" s="0" t="n">
-        <f aca="false">B244+C244</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="15" t="s">
@@ -12179,13 +12677,6 @@
       <c r="B245" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C245" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D245" s="0" t="n">
-        <f aca="false">B245+C245</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="15" t="s">
@@ -12194,13 +12685,6 @@
       <c r="B246" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C246" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D246" s="0" t="n">
-        <f aca="false">B246+C246</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="15" t="s">
@@ -12209,26 +12693,12 @@
       <c r="B247" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C247" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D247" s="0" t="n">
-        <f aca="false">B247+C247</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B248" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C248" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D248" s="0" t="n">
-        <f aca="false">B248+C248</f>
         <v>0</v>
       </c>
     </row>
@@ -12239,13 +12709,6 @@
       <c r="B249" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C249" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D249" s="0" t="n">
-        <f aca="false">B249+C249</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="15" t="s">
@@ -12254,13 +12717,6 @@
       <c r="B250" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C250" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D250" s="0" t="n">
-        <f aca="false">B250+C250</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="15" t="s">
@@ -12269,71 +12725,36 @@
       <c r="B251" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C251" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D251" s="0" t="n">
-        <f aca="false">B251+C251</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="13" t="s">
-        <v>6</v>
+      <c r="A252" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C252" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D252" s="0" t="n">
-        <f aca="false">B252+C252</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="13" t="s">
+      <c r="A253" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C253" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D253" s="0" t="n">
-        <f aca="false">B253+C253</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="13" t="s">
-        <v>9</v>
+      <c r="A254" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C254" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D254" s="0" t="n">
-        <f aca="false">B254+C254</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="13" t="s">
+      <c r="A255" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B255" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C255" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D255" s="0" t="n">
-        <f aca="false">B255+C255</f>
         <v>0</v>
       </c>
     </row>
